--- a/simulation_data/iterative_algorithm/i_error_level_11_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_11_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.02160165453066</v>
+        <v>90.15905582557416</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2155209483734</v>
+        <v>11.40559047575327</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>86.90593337807186</v>
+        <v>89.31865183898002</v>
       </c>
       <c r="D3" t="n">
-        <v>11.02834027619267</v>
+        <v>11.56930301474524</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.13080579567189</v>
+        <v>86.35755335075842</v>
       </c>
       <c r="D4" t="n">
-        <v>13.15548797970331</v>
+        <v>11.8990569652394</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.2226543250553</v>
+        <v>88.14808572381303</v>
       </c>
       <c r="D5" t="n">
-        <v>13.49483518669554</v>
+        <v>10.01772798824199</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.76698742059918</v>
+        <v>84.87125123806119</v>
       </c>
       <c r="D6" t="n">
-        <v>11.78233937265205</v>
+        <v>9.871779231834733</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.81124627058365</v>
+        <v>83.78524019236188</v>
       </c>
       <c r="D7" t="n">
-        <v>12.24631746155004</v>
+        <v>12.21461953407677</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.19252186650601</v>
+        <v>83.54767011091867</v>
       </c>
       <c r="D8" t="n">
-        <v>11.48324616990036</v>
+        <v>11.51370526231021</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.91266839425199</v>
+        <v>83.37351055206375</v>
       </c>
       <c r="D9" t="n">
-        <v>12.46907844296767</v>
+        <v>11.29217054379445</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.82209233388515</v>
+        <v>81.7816826298409</v>
       </c>
       <c r="D10" t="n">
-        <v>11.53471862633688</v>
+        <v>12.8494378270938</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.53367884891315</v>
+        <v>78.35046639676493</v>
       </c>
       <c r="D11" t="n">
-        <v>10.34863107734239</v>
+        <v>11.5732893544744</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>78.80287819573439</v>
+        <v>79.10312528190602</v>
       </c>
       <c r="D12" t="n">
-        <v>12.01799833712829</v>
+        <v>12.51423857808442</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.26037773868667</v>
+        <v>78.63390491878604</v>
       </c>
       <c r="D13" t="n">
-        <v>12.87546031367159</v>
+        <v>11.94928459669776</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.1342966106475</v>
+        <v>78.98574140219539</v>
       </c>
       <c r="D14" t="n">
-        <v>12.61913442500565</v>
+        <v>12.10026451145758</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.88396583394641</v>
+        <v>77.71725917540876</v>
       </c>
       <c r="D15" t="n">
-        <v>14.06704452818977</v>
+        <v>12.16651243869175</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>74.23023267953535</v>
+        <v>76.35306297049915</v>
       </c>
       <c r="D16" t="n">
-        <v>12.06742968743372</v>
+        <v>10.89812975403478</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.67536741257547</v>
+        <v>73.0133660920325</v>
       </c>
       <c r="D17" t="n">
-        <v>12.02477368401908</v>
+        <v>12.176947121815</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.02672635241299</v>
+        <v>72.62243477351915</v>
       </c>
       <c r="D18" t="n">
-        <v>13.44398572408726</v>
+        <v>13.5301192711622</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.57929448113364</v>
+        <v>71.68895009264271</v>
       </c>
       <c r="D19" t="n">
-        <v>12.38800478255811</v>
+        <v>11.84715385053699</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>75.747651154567</v>
+        <v>69.74022222388912</v>
       </c>
       <c r="D20" t="n">
-        <v>11.28326186100796</v>
+        <v>10.18634111843843</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.13101828504786</v>
+        <v>69.5280486336782</v>
       </c>
       <c r="D21" t="n">
-        <v>10.33897893343392</v>
+        <v>12.00670419852848</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.62796918827738</v>
+        <v>68.05846338140942</v>
       </c>
       <c r="D22" t="n">
-        <v>10.7245161206489</v>
+        <v>12.09440821818328</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.74064812881666</v>
+        <v>70.30101524528273</v>
       </c>
       <c r="D23" t="n">
-        <v>12.84029670944407</v>
+        <v>11.66412498094597</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.87743581930185</v>
+        <v>65.34870785774946</v>
       </c>
       <c r="D24" t="n">
-        <v>11.60751170051581</v>
+        <v>14.02799785239502</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.90632618978624</v>
+        <v>67.28553777199076</v>
       </c>
       <c r="D25" t="n">
-        <v>12.52156463667172</v>
+        <v>12.27677076347346</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.27084884901419</v>
+        <v>65.66127097913667</v>
       </c>
       <c r="D26" t="n">
-        <v>13.2093657281754</v>
+        <v>12.93932620370348</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.12215193740613</v>
+        <v>65.16713212146308</v>
       </c>
       <c r="D27" t="n">
-        <v>12.75590692115626</v>
+        <v>12.49713031586614</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.9006698707566</v>
+        <v>65.61047787602149</v>
       </c>
       <c r="D28" t="n">
-        <v>11.70419563817125</v>
+        <v>11.27470130091296</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.04035151603105</v>
+        <v>64.65651143872161</v>
       </c>
       <c r="D29" t="n">
-        <v>12.17200346602369</v>
+        <v>10.84553065115614</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.79975423104194</v>
+        <v>61.534273432113</v>
       </c>
       <c r="D30" t="n">
-        <v>12.11818893400392</v>
+        <v>10.66899147267475</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.83678298589044</v>
+        <v>61.4164964554953</v>
       </c>
       <c r="D31" t="n">
-        <v>11.6962336894188</v>
+        <v>13.02795178823391</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>58.75730376696625</v>
+        <v>61.23193777636039</v>
       </c>
       <c r="D32" t="n">
-        <v>13.54650826304031</v>
+        <v>12.85444457364371</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>56.47752842115757</v>
+        <v>57.76769277995133</v>
       </c>
       <c r="D33" t="n">
-        <v>12.525941060303</v>
+        <v>12.14247211863685</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.64557995306479</v>
+        <v>56.63918826670779</v>
       </c>
       <c r="D34" t="n">
-        <v>11.02131191875716</v>
+        <v>12.66738807491336</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.00109054940326</v>
+        <v>59.37544580238539</v>
       </c>
       <c r="D35" t="n">
-        <v>11.90465069264714</v>
+        <v>12.0866283906643</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.78957874758833</v>
+        <v>54.74566299212135</v>
       </c>
       <c r="D36" t="n">
-        <v>13.09407457943324</v>
+        <v>13.90917082241153</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.98519113573816</v>
+        <v>54.51139799485949</v>
       </c>
       <c r="D37" t="n">
-        <v>11.90945234131973</v>
+        <v>11.5584798198316</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.09155179542485</v>
+        <v>52.38874747629036</v>
       </c>
       <c r="D38" t="n">
-        <v>12.7330451108864</v>
+        <v>11.91178514886345</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.09118793485001</v>
+        <v>52.83537248010924</v>
       </c>
       <c r="D39" t="n">
-        <v>12.16600922648988</v>
+        <v>10.62447374969864</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.26986995035184</v>
+        <v>50.51140549745293</v>
       </c>
       <c r="D40" t="n">
-        <v>12.50153855395542</v>
+        <v>12.32776787101976</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.76610587350332</v>
+        <v>50.6701812950596</v>
       </c>
       <c r="D41" t="n">
-        <v>10.90586005793086</v>
+        <v>11.61899920523735</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>52.37290154383651</v>
+        <v>50.75488033865381</v>
       </c>
       <c r="D42" t="n">
-        <v>11.28721737687476</v>
+        <v>12.32278832514049</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.31682678028141</v>
+        <v>46.97336186149502</v>
       </c>
       <c r="D43" t="n">
-        <v>12.20276705079706</v>
+        <v>13.0011694085563</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.21790547685269</v>
+        <v>47.17725954889657</v>
       </c>
       <c r="D44" t="n">
-        <v>12.30752567592914</v>
+        <v>13.05313229475623</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.25955828563519</v>
+        <v>46.15482315480781</v>
       </c>
       <c r="D45" t="n">
-        <v>11.85430851720613</v>
+        <v>13.97084322879675</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.25955747043798</v>
+        <v>45.29303267307152</v>
       </c>
       <c r="D46" t="n">
-        <v>11.33432481856678</v>
+        <v>11.86816201209409</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.40067322551734</v>
+        <v>44.97982714830538</v>
       </c>
       <c r="D47" t="n">
-        <v>12.92367869137927</v>
+        <v>11.2259128260625</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.05973098007611</v>
+        <v>43.14286585643357</v>
       </c>
       <c r="D48" t="n">
-        <v>12.30745818771637</v>
+        <v>11.75660787940694</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.39690705671419</v>
+        <v>41.29171848884315</v>
       </c>
       <c r="D49" t="n">
-        <v>11.26462824509075</v>
+        <v>11.76382860659948</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.65583004092942</v>
+        <v>41.20233006806136</v>
       </c>
       <c r="D50" t="n">
-        <v>13.04925106868864</v>
+        <v>11.37631560808188</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.59482502634933</v>
+        <v>41.56286572601719</v>
       </c>
       <c r="D51" t="n">
-        <v>11.31819747490561</v>
+        <v>13.46975315097692</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.2864017846221</v>
+        <v>39.24007232439311</v>
       </c>
       <c r="D52" t="n">
-        <v>13.31731073465339</v>
+        <v>11.58724943437837</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.89549939641858</v>
+        <v>39.41554673971159</v>
       </c>
       <c r="D53" t="n">
-        <v>12.56727765973456</v>
+        <v>11.02154242910587</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.8653075453369</v>
+        <v>37.79762229999987</v>
       </c>
       <c r="D54" t="n">
-        <v>12.9693762697431</v>
+        <v>13.60412034126748</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.55837650711777</v>
+        <v>37.33594192209007</v>
       </c>
       <c r="D55" t="n">
-        <v>10.92571464946688</v>
+        <v>11.90030467920228</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.38695699963753</v>
+        <v>36.57017352875555</v>
       </c>
       <c r="D56" t="n">
-        <v>11.79725433742813</v>
+        <v>12.92863871469665</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>38.59351954381641</v>
+        <v>35.76929061028381</v>
       </c>
       <c r="D57" t="n">
-        <v>10.84383113711014</v>
+        <v>12.58728015496708</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.79173086665803</v>
+        <v>33.62108599490418</v>
       </c>
       <c r="D58" t="n">
-        <v>11.18236090950706</v>
+        <v>12.52446525102833</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.25297436831613</v>
+        <v>33.59396462284862</v>
       </c>
       <c r="D59" t="n">
-        <v>12.634424032241</v>
+        <v>12.86900142754676</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.48761912145996</v>
+        <v>30.57207028864424</v>
       </c>
       <c r="D60" t="n">
-        <v>10.63648931232835</v>
+        <v>12.17794031705185</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.82743942070754</v>
+        <v>32.77276822549236</v>
       </c>
       <c r="D61" t="n">
-        <v>12.24359076397511</v>
+        <v>12.2435829556164</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.9117181254711</v>
+        <v>28.06879591304617</v>
       </c>
       <c r="D62" t="n">
-        <v>13.54394720888937</v>
+        <v>11.30410429096131</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.07315777650259</v>
+        <v>28.71650411241709</v>
       </c>
       <c r="D63" t="n">
-        <v>10.46554126224541</v>
+        <v>12.58225876024302</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.13757317538602</v>
+        <v>27.51394374347675</v>
       </c>
       <c r="D64" t="n">
-        <v>14.236472964606</v>
+        <v>11.71110270346244</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.42557038225601</v>
+        <v>28.55118360401788</v>
       </c>
       <c r="D65" t="n">
-        <v>12.0506445543371</v>
+        <v>13.00976809086934</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>28.6019405136083</v>
+        <v>26.29782684471943</v>
       </c>
       <c r="D66" t="n">
-        <v>11.91550328649167</v>
+        <v>12.99053768711351</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.82382762896562</v>
+        <v>24.63481080880251</v>
       </c>
       <c r="D67" t="n">
-        <v>12.65355402409005</v>
+        <v>12.70435242417704</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.29844265118448</v>
+        <v>24.84475317055714</v>
       </c>
       <c r="D68" t="n">
-        <v>12.40476359936747</v>
+        <v>12.25703533925154</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.18161251354514</v>
+        <v>22.98969504712699</v>
       </c>
       <c r="D69" t="n">
-        <v>14.79828533516493</v>
+        <v>11.96529084544239</v>
       </c>
     </row>
   </sheetData>
